--- a/_sync/引擎工具链比照.xlsx
+++ b/_sync/引擎工具链比照.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E635CC6-1645-47AC-8070-2A08B261FC3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB495D78-3524-462E-8F79-4656839E97B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,26 +106,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>资产商店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>简陋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丰富</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丰富+大量专业免费资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>快速框架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,6 +131,162 @@
   </si>
   <si>
     <t>unreal5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可视化编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VS(4.0移除)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameCreator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态树+智能对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特色功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器学习变形器(maya)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态机+动画层(AnimationController)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互动物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NNI(仅调用模型,暂未开放)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ML-Agents(github)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper2D(仅最低功能)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心(丰富,易用,易扩展)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D功能集合包(丰富强大)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身足够方便(但仍需要造轮子)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简陋,几乎不可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量(2d极少)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少(3d极少)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量(各种各样)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极易用,轻小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全免费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利收费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万金油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰富+超多优质资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰富+大量专业的官方免费资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,17 +646,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -537,23 +678,23 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -567,16 +708,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -584,28 +725,153 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
       <c r="F8" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/_sync/引擎工具链比照.xlsx
+++ b/_sync/引擎工具链比照.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB495D78-3524-462E-8F79-4656839E97B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFA3A32-EEDF-4FF1-882F-766042F1FBE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{28C8336F-2A68-478F-B8B6-B312BB3919F0}">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{28C8336F-2A68-478F-B8B6-B312BB3919F0}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Puppet Master</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Physics Asset Editor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,22 +134,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bolt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VS(4.0移除)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蓝图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GameCreator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>状态机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,10 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>极易用,轻小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完全免费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,11 +262,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>丰富+超多优质资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丰富+大量专业的官方免费资源</t>
+    <t>MaterialX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极易用,轻小,强大2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFX Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Niagara VFX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shaderGraph()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material Editor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fusion&amp;davinciresolve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZBrush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material Maker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Substance 3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinalIK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Playmaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰富+专业+大量免费资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰富+专业+大量官方免费资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisualScripting(Bolt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisualScript(4.0移除)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene+node+script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene+prefab+component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -658,7 +718,7 @@
     <col min="2" max="2" width="27.875" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="6" max="6" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -673,205 +733,261 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
-        <v>32</v>
+      <c r="F11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C23" t="s">
         <v>50</v>
       </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/_sync/引擎工具链比照.xlsx
+++ b/_sync/引擎工具链比照.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFA3A32-EEDF-4FF1-882F-766042F1FBE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7F7F66-47F0-435B-99BC-88F487BC86B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="5070" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,6 +347,22 @@
   </si>
   <si>
     <t>组织结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Babylon.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CocosCreator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layaAir</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -990,6 +1006,22 @@
         <v>46</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_sync/引擎工具链比照.xlsx
+++ b/_sync/引擎工具链比照.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7F7F66-47F0-435B-99BC-88F487BC86B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEDDB00-A5DF-4EC1-B8BC-9348B36FA3EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4275" yWindow="5070" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,6 +363,10 @@
   </si>
   <si>
     <t>layaAir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicaVoxel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -978,6 +982,11 @@
         <v>60</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>

--- a/_sync/引擎工具链比照.xlsx
+++ b/_sync/引擎工具链比照.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEDDB00-A5DF-4EC1-B8BC-9348B36FA3EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A291E975-CDC8-4853-A44F-240A16957D50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="5070" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="5070" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="应用工具" sheetId="1" r:id="rId1"/>
+    <sheet name="文献参考" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,6 +368,13 @@
   </si>
   <si>
     <t>MagicaVoxel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[技术分析]探讨大世界游戏的制作流程及技术——大场景制作技术概况篇 - 知乎 (zhihu.com)</t>
+  </si>
+  <si>
+    <t>相机相对渲染</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,7 +382,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +429,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -439,16 +455,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -728,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -987,6 +1009,11 @@
         <v>77</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
@@ -1037,4 +1064,35 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B05F5D-2888-4A27-BA0D-EBD5D915E28A}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://zhuanlan.zhihu.com/p/162892899" xr:uid="{11A56248-C0F4-40DE-9AA8-7D083669AC38}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://docs.unity3d.com/Packages/com.unity.render-pipelines.high-definition@6.7/manual/Camera-Relative-Rendering.html" xr:uid="{5FA5BE53-54CB-46D0-9A38-5F51EF1385F6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId3"/>
+</worksheet>
 </file>
--- a/_sync/引擎工具链比照.xlsx
+++ b/_sync/引擎工具链比照.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A291E975-CDC8-4853-A44F-240A16957D50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19B59B7-30CA-4D4F-A506-FB6BB84A1BC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="5070" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="5070" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="应用工具" sheetId="1" r:id="rId1"/>
     <sheet name="文献参考" sheetId="2" r:id="rId2"/>
+    <sheet name="想法" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,6 +27,32 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{74B47895-2E65-4A46-A833-03B1CC729553}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+https://dev.epicgames.com/zh-CN/services</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D5" authorId="0" shapeId="0" xr:uid="{28C8336F-2A68-478F-B8B6-B312BB3919F0}">
       <text>
         <r>
@@ -57,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +402,25 @@
   </si>
   <si>
     <t>相机相对渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎内伪细分效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epic在线服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.reddit.com/user/mightofmerchants/</t>
+  </si>
+  <si>
+    <t>godotDemo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,6 +529,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2942857</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED932FAE-70FD-4E33-92AA-9060851D8697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="1266825"/>
+          <a:ext cx="2942857" cy="2342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -748,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -763,7 +858,7 @@
     <col min="6" max="6" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,8 +872,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -794,7 +892,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -808,7 +906,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -821,8 +919,11 @@
       <c r="F4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -839,7 +940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -856,7 +957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -873,7 +974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -890,7 +991,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -904,7 +1005,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -918,7 +1019,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -929,7 +1030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -940,7 +1041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -951,7 +1052,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -965,7 +1066,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1070,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B05F5D-2888-4A27-BA0D-EBD5D915E28A}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -1095,4 +1196,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB78214-44A6-40D1-B2BD-58D9D8A4ECB8}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="50.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/_sync/引擎工具链比照.xlsx
+++ b/_sync/引擎工具链比照.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19B59B7-30CA-4D4F-A506-FB6BB84A1BC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9462A65-C712-40BB-9444-7717D9E7E4C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4275" yWindow="5070" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,12 +79,118 @@
         </r>
       </text>
     </comment>
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{89FB4EAD-56DF-46CA-821E-1F225699CE3A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+https://jangafx.com/</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{E98F54D5-D7F9-4C99-ACB3-E6F229E77950}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+https://www.youtube.com/watch?v=XPs-HGzElTg --在编辑器运行代码
+https://docs.godotengine.org/en/stable/tutorials/plugins/editor/making_plugins.html --创建插件帮助
+https://www.youtube.com/watch?v=kSC_m9yy9w0 --创建插件教程</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{F33C9B71-05D8-4885-834C-3776E92CC416}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+类可以带有自定义的图标</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F25" authorId="0" shapeId="0" xr:uid="{C08EFCE5-643A-4564-9E1A-01795AD99CEC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+流程设计工具</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Physics Asset Editor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DCC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,241 +288,284 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态机+动画层(AnimationController)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互动物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NNI(仅调用模型,暂未开放)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ML-Agents(github)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper2D(仅最低功能)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心(丰富,易用,易扩展)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D功能集合包(丰富强大)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身足够方便(但仍需要造轮子)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简陋,几乎不可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量(2d极少)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少(3d极少)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量(各种各样)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全免费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利收费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万金油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFX Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Niagara VFX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shaderGraph()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material Editor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fusion&amp;davinciresolve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZBrush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material Maker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Substance 3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinalIK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Playmaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰富+专业+大量免费资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰富+专业+大量官方免费资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisualScripting(Bolt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisualScript(4.0移除)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene+prefab+component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Babylon.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CocosCreator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layaAir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicaVoxel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[技术分析]探讨大世界游戏的制作流程及技术——大场景制作技术概况篇 - 知乎 (zhihu.com)</t>
+  </si>
+  <si>
+    <t>相机相对渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎内伪细分效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epic在线服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.reddit.com/user/mightofmerchants/</t>
+  </si>
+  <si>
+    <t>godotDemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physics Asset Editor + Power IK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换皮能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于component和资源:非常容易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常适合第一人称第三人称的3D游戏:FPS/TPS游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>机器学习变形器(maya)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动画序列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Timeline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态机+动画层(AnimationController)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>互动物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NNI(仅调用模型,暂未开放)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ML-Agents(github)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paper2D(仅最低功能)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心(丰富,易用,易扩展)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2D功能集合包(丰富强大)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身足够方便(但仍需要造轮子)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简陋,几乎不可用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大量(2d极少)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少(3d极少)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大量(各种各样)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全免费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盈利收费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迭代性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万金油</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaterialX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极易用,轻小,强大2D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VFX Graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Niagara VFX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shaderGraph()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Material Editor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fusion&amp;davinciresolve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpeedTree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZBrush</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Material Maker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Substance 3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FinalIK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Playmaker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丰富+专业+大量免费资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丰富+专业+大量官方免费资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VisualScripting(Bolt)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VisualScript(4.0移除)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scene+node+script</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scene+prefab+component</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Babylon.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CocosCreator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>layaAir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicaVoxel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[技术分析]探讨大世界游戏的制作流程及技术——大场景制作技术概况篇 - 知乎 (zhihu.com)</t>
-  </si>
-  <si>
-    <t>相机相对渲染</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引擎内伪细分效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Epic在线服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.reddit.com/user/mightofmerchants/</t>
-  </si>
-  <si>
-    <t>godotDemo</t>
+  </si>
+  <si>
+    <t>极易用,轻小,强大2D,支持3D,自由度极高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmberGen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑器脚本(python/蓝图/UMG)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件+编辑器脚本(可带GUI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑器脚本&amp;编辑器插件(Tool&amp;Plugin)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gd,tscn,load类示例和资源:一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene+node+script+signal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,13 +650,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -846,15 +994,15 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="27.875" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="2" max="2" width="33.25" customWidth="1"/>
+    <col min="3" max="3" width="41.625" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
     <col min="6" max="6" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -870,37 +1018,37 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
@@ -908,255 +1056,289 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" t="s">
-        <v>62</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F18" t="s">
-        <v>60</v>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F21" t="s">
-        <v>77</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
+        <v>48</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1179,12 +1361,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1214,15 +1396,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/_sync/引擎工具链比照.xlsx
+++ b/_sync/引擎工具链比照.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9462A65-C712-40BB-9444-7717D9E7E4C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B49061-9FEC-4A13-A099-C87276D2B849}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4275" yWindow="5070" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,7 @@
     <sheet name="应用工具" sheetId="1" r:id="rId1"/>
     <sheet name="文献参考" sheetId="2" r:id="rId2"/>
     <sheet name="想法" sheetId="3" r:id="rId3"/>
+    <sheet name="资产网址" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -190,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="122">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,10 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>unity2022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>unreal5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -566,6 +563,110 @@
   </si>
   <si>
     <t>scene+node+script+signal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://craftpix.net/membership/</t>
+  </si>
+  <si>
+    <t>美术资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://game-icons.net/</t>
+  </si>
+  <si>
+    <t>2D,付费,免费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标,图块,免费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gamedev3d.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D,3D,测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kenney.nl/assets</t>
+  </si>
+  <si>
+    <t>2D,3D,免费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.aigei.com/</t>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合集,市场,测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://indienova.com/</t>
+  </si>
+  <si>
+    <t>资讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://itch.io/</t>
+  </si>
+  <si>
+    <t>资讯,门户,资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://itch.io/game-assets</t>
+  </si>
+  <si>
+    <t>2D,3D,免费,付费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity一种动画优化方法</t>
+  </si>
+  <si>
+    <t>unity2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity游戏产品服务UGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET,开源Unity客户端服务框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameFramework,Unity游戏框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemoryPack,Unity0代码内存序列化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zstring,Unity0分配可变字符序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -993,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1004,6 +1105,7 @@
     <col min="3" max="3" width="41.625" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
     <col min="6" max="6" width="21.75" customWidth="1"/>
+    <col min="8" max="8" width="29.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1021,7 +1123,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1032,23 +1134,23 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
@@ -1056,19 +1158,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1076,16 +1178,19 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
         <v>63</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1093,10 +1198,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1107,16 +1212,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -1124,55 +1229,55 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
@@ -1180,10 +1285,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -1191,192 +1296,230 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
         <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
         <v>89</v>
       </c>
-      <c r="B16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" t="s">
-        <v>90</v>
-      </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
         <v>82</v>
       </c>
-      <c r="B19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>43</v>
       </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F25" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C28" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C29" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C30" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
         <v>70</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>71</v>
-      </c>
-      <c r="C32" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C29" r:id="rId1" display="https://github.com/EllanJiang/GameFramework" xr:uid="{3E5F7DF7-6D4E-4C61-8D06-4E29F5FAF873}"/>
+    <hyperlink ref="C30" r:id="rId2" display="https://github.com/egametang/ET" xr:uid="{BD638428-20D2-4086-B923-657A00B841F1}"/>
+    <hyperlink ref="C27" r:id="rId3" display="https://github.com/Cysharp/MemoryPack" xr:uid="{85074A76-EE9C-4C6D-8E2B-BC050733FC53}"/>
+    <hyperlink ref="C28" r:id="rId4" display="https://github.com/Cysharp/ZString" xr:uid="{1A0076EA-2C23-4DAB-95B1-FD75BD8E59FF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B05F5D-2888-4A27-BA0D-EBD5D915E28A}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>75</v>
-      </c>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://zhuanlan.zhihu.com/p/162892899" xr:uid="{11A56248-C0F4-40DE-9AA8-7D083669AC38}"/>
     <hyperlink ref="A2" r:id="rId2" display="https://docs.unity3d.com/Packages/com.unity.render-pipelines.high-definition@6.7/manual/Camera-Relative-Rendering.html" xr:uid="{5FA5BE53-54CB-46D0-9A38-5F51EF1385F6}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{E01B237C-9901-40AD-95C1-4BB658509282}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1396,15 +1539,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1413,4 +1556,112 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8EEB77-3829-4C97-A4AE-E790FF5046F9}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="53.125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{034CE2C8-2F5B-4C31-B9D3-27036078945E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/_sync/引擎工具链比照.xlsx
+++ b/_sync/引擎工具链比照.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B49061-9FEC-4A13-A099-C87276D2B849}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD71A7AA-C84E-4011-A901-204C1B7D15D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4275" yWindow="5070" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,14 +313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NNI(仅调用模型,暂未开放)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ML-Agents(github)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Paper2D(仅最低功能)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -667,6 +659,14 @@
   </si>
   <si>
     <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NNI(仅调用模型,暂未开放)MindMaker(github)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ML-Agents(github)Unity Perception 1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1123,7 +1123,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1134,7 +1134,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -1144,13 +1144,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
@@ -1161,16 +1161,16 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1178,19 +1178,19 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1198,10 +1198,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1215,10 +1215,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1241,7 +1241,7 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1249,13 +1249,13 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1263,13 +1263,13 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1296,102 +1296,102 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
         <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
         <v>88</v>
       </c>
-      <c r="B16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1399,74 +1399,74 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
         <v>41</v>
       </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C28" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C29" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
         <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1495,17 +1495,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -1539,15 +1539,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1575,85 +1575,85 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
         <v>95</v>
       </c>
-      <c r="B1" t="s">
-        <v>97</v>
-      </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
         <v>98</v>
-      </c>
-      <c r="B5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
         <v>105</v>
-      </c>
-      <c r="B13" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/_sync/引擎工具链比照.xlsx
+++ b/_sync/引擎工具链比照.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD71A7AA-C84E-4011-A901-204C1B7D15D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF6E5C5-A637-48E5-A38A-F92B8073D8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="5070" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="应用工具" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="123">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -667,6 +667,10 @@
   </si>
   <si>
     <t>ML-Agents(github)Unity Perception 1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cascadeur</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1095,7 +1099,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1436,6 +1440,9 @@
       </c>
       <c r="C27" s="3" t="s">
         <v>117</v>
+      </c>
+      <c r="F27" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">

--- a/_sync/引擎工具链比照.xlsx
+++ b/_sync/引擎工具链比照.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF6E5C5-A637-48E5-A38A-F92B8073D8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A1AFD0-448E-4DE8-814F-3BC18EC3DBC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="应用工具" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="124">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -672,6 +672,9 @@
   <si>
     <t>Cascadeur</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDC游戏开发者大会</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -1495,10 +1498,13 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -1522,7 +1528,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://zhuanlan.zhihu.com/p/162892899" xr:uid="{11A56248-C0F4-40DE-9AA8-7D083669AC38}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://docs.unity3d.com/Packages/com.unity.render-pipelines.high-definition@6.7/manual/Camera-Relative-Rendering.html" xr:uid="{5FA5BE53-54CB-46D0-9A38-5F51EF1385F6}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{5FA5BE53-54CB-46D0-9A38-5F51EF1385F6}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{E01B237C-9901-40AD-95C1-4BB658509282}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1532,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB78214-44A6-40D1-B2BD-58D9D8A4ECB8}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1557,11 +1563,19 @@
         <v>76</v>
       </c>
     </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A23" r:id="rId1" xr:uid="{3A35E2F1-A96D-4042-9861-DA038855249F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/_sync/引擎工具链比照.xlsx
+++ b/_sync/引擎工具链比照.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A1AFD0-448E-4DE8-814F-3BC18EC3DBC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2751BA5B-EAEA-489B-AC8A-B1308F260160}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="应用工具" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="134">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -675,6 +675,45 @@
   </si>
   <si>
     <t>GDC游戏开发者大会</t>
+  </si>
+  <si>
+    <t>版本控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitbucket</t>
+  </si>
+  <si>
+    <t>git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unity Plastic SCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mercurial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perforce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bazaar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svn(大文件支持好,简单易用)(非常适合游戏开发)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1099,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1477,6 +1516,42 @@
       </c>
       <c r="C32" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1540,7 +1615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB78214-44A6-40D1-B2BD-58D9D8A4ECB8}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>

--- a/_sync/引擎工具链比照.xlsx
+++ b/_sync/引擎工具链比照.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2751BA5B-EAEA-489B-AC8A-B1308F260160}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6858DA9-A1D5-4E5B-A004-72425879D8AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="应用工具" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="150">
   <si>
     <t>godot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -714,6 +714,64 @@
   <si>
     <t>svn(大文件支持好,简单易用)(非常适合游戏开发)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特色插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicaCloth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDraper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实用技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烘焙动画到贴图</t>
+  </si>
+  <si>
+    <t>捏脸系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨骼捏脸+变形器动画 (不确定与lod的混合效果)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头部烘焙为自shader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似Instant Impostors V1.1 | One-Click Impostor Generation (Eevee)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种视差效果不适合发生顶点位移的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ma-yidong.com/2019/06/22/a-short-history-of-parallax-occlusion-mapping-relief-mapping/</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/265317045</t>
+  </si>
+  <si>
+    <t>卡牌效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portal Stencil Shader</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1zJ411K7fg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9wv7-XY2tp8</t>
   </si>
 </sst>
 </file>
@@ -1138,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1152,9 +1210,10 @@
     <col min="4" max="4" width="43" customWidth="1"/>
     <col min="6" max="6" width="21.75" customWidth="1"/>
     <col min="8" max="8" width="29.25" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,8 +1230,11 @@
       <c r="H1" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1187,8 +1249,11 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J2" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1202,7 +1267,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1219,7 +1284,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1239,7 +1304,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1256,7 +1321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1273,7 +1338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1290,7 +1355,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1304,7 +1369,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1318,7 +1383,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1329,7 +1394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1340,7 +1405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1351,7 +1416,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1365,7 +1430,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1379,7 +1444,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -1474,6 +1539,17 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F25" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1561,10 +1637,11 @@
     <hyperlink ref="C30" r:id="rId2" display="https://github.com/egametang/ET" xr:uid="{BD638428-20D2-4086-B923-657A00B841F1}"/>
     <hyperlink ref="C27" r:id="rId3" display="https://github.com/Cysharp/MemoryPack" xr:uid="{85074A76-EE9C-4C6D-8E2B-BC050733FC53}"/>
     <hyperlink ref="C28" r:id="rId4" display="https://github.com/Cysharp/ZString" xr:uid="{1A0076EA-2C23-4DAB-95B1-FD75BD8E59FF}"/>
+    <hyperlink ref="J2" r:id="rId5" xr:uid="{574F8EE3-5A50-45A3-85BD-4EDFBD15C97D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1613,16 +1690,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB78214-44A6-40D1-B2BD-58D9D8A4ECB8}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="50.875" customWidth="1"/>
+    <col min="2" max="2" width="68.5" customWidth="1"/>
+    <col min="3" max="3" width="55.375" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1638,9 +1717,52 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
